--- a/testData/DpWorkDataParameterization.xlsx
+++ b/testData/DpWorkDataParameterization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\DpWork_AutomationTesting\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DpWorkProject\DpWorkPrivate\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D40233-FAE9-4EB7-A111-8862F2656810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D32992E-6644-431C-9119-262A391CA5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1476" yWindow="1920" windowWidth="15852" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>User ID</t>
   </si>
@@ -76,6 +76,87 @@
   </si>
   <si>
     <t>tarzaan@gmail.com</t>
+  </si>
+  <si>
+    <t>test_user7@test.com</t>
+  </si>
+  <si>
+    <t>district.bardhaman@gmail.com</t>
+  </si>
+  <si>
+    <t>user.bardhaman@gmail.com</t>
+  </si>
+  <si>
+    <t>test_user5@test.com</t>
+  </si>
+  <si>
+    <t>district.bengal@gmail.com</t>
+  </si>
+  <si>
+    <t>test_user4@test.com</t>
+  </si>
+  <si>
+    <t>test_user8@test.com</t>
+  </si>
+  <si>
+    <t>adib.wipro@gmail.com</t>
+  </si>
+  <si>
+    <t>rd.test@test.com</t>
+  </si>
+  <si>
+    <t>test_user3@test.com</t>
+  </si>
+  <si>
+    <t>test_user9@test.com</t>
+  </si>
+  <si>
+    <t>test_user1@test.com</t>
+  </si>
+  <si>
+    <t>test_user6@test.com</t>
+  </si>
+  <si>
+    <t>state.jharkhand@gmail.com</t>
+  </si>
+  <si>
+    <t>state.bengal@gmail.com</t>
+  </si>
+  <si>
+    <t>super_user@gmail.com</t>
+  </si>
+  <si>
+    <t>twentytwo@gmail.com</t>
+  </si>
+  <si>
+    <t>super_admin@gmail.com</t>
+  </si>
+  <si>
+    <t>balasore@test.com</t>
+  </si>
+  <si>
+    <t>cuttack@test.com</t>
+  </si>
+  <si>
+    <t>ganjam@test.com</t>
+  </si>
+  <si>
+    <t>puri@test.com</t>
+  </si>
+  <si>
+    <t>indore@test.com</t>
+  </si>
+  <si>
+    <t>nagpur@test.com</t>
+  </si>
+  <si>
+    <t>csZhBbtgv</t>
+  </si>
+  <si>
+    <t>Sujay@123</t>
+  </si>
+  <si>
+    <t>Test@1234</t>
   </si>
 </sst>
 </file>
@@ -437,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,6 +647,270 @@
         <v>1234</v>
       </c>
       <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>1234</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>1234</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>1234</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>1234</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>1234</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>1234</v>
+      </c>
+      <c r="C35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -583,8 +928,33 @@
     <hyperlink ref="A10" r:id="rId10" xr:uid="{953F31E2-6F88-4AFE-9FAD-2C35F3134675}"/>
     <hyperlink ref="A4" r:id="rId11" xr:uid="{0BDCA39D-6D74-4C0C-9C0B-C786DB2B02B5}"/>
     <hyperlink ref="A11" r:id="rId12" xr:uid="{5562E7E3-A68B-49B1-B602-F628517FFC88}"/>
+    <hyperlink ref="A12" r:id="rId13" xr:uid="{16CA6A1F-C551-438B-BD81-2A90765AD3D4}"/>
+    <hyperlink ref="A13" r:id="rId14" xr:uid="{7056EA92-77C1-4EE2-BB10-C18EB3682798}"/>
+    <hyperlink ref="A14" r:id="rId15" xr:uid="{4A696B0D-D394-449C-AC7C-A4C343B40CB6}"/>
+    <hyperlink ref="A15" r:id="rId16" xr:uid="{0A655DFE-3CF6-4153-B7D3-40E9507A286E}"/>
+    <hyperlink ref="A16" r:id="rId17" xr:uid="{3FFFEC88-ED41-43C3-B1D9-8C9CBEE1466F}"/>
+    <hyperlink ref="A17" r:id="rId18" xr:uid="{BFC93F50-17AF-48B9-9FBA-7AD9A5B48728}"/>
+    <hyperlink ref="A18" r:id="rId19" xr:uid="{7704C4AD-34ED-4564-8187-BF8A71F18299}"/>
+    <hyperlink ref="A19" r:id="rId20" xr:uid="{864661EB-C756-4E5D-8290-B5B4587D13D8}"/>
+    <hyperlink ref="A20" r:id="rId21" xr:uid="{90E15EE1-B773-499C-A3B5-C258024E2F4E}"/>
+    <hyperlink ref="A21" r:id="rId22" xr:uid="{954E49CC-4F2F-49BF-AAF2-7DA25C029EFF}"/>
+    <hyperlink ref="A22" r:id="rId23" xr:uid="{7B84A978-9805-4338-9365-B3725FAB7030}"/>
+    <hyperlink ref="A23" r:id="rId24" xr:uid="{9BB611F0-D9E1-4465-89EC-3816A1263F2C}"/>
+    <hyperlink ref="A24" r:id="rId25" xr:uid="{34861663-E66A-426F-B474-E17B8126D339}"/>
+    <hyperlink ref="A25" r:id="rId26" xr:uid="{449493EE-8185-430F-B38D-E93C16B3F402}"/>
+    <hyperlink ref="A26" r:id="rId27" xr:uid="{B50E9D59-94EC-4CA2-836D-7DD33E70EB88}"/>
+    <hyperlink ref="A27" r:id="rId28" xr:uid="{9B3DE194-5568-41A5-A011-0BBC34436123}"/>
+    <hyperlink ref="A28" r:id="rId29" xr:uid="{A9B79F8F-8C96-49E2-8EBB-783B7137A9D4}"/>
+    <hyperlink ref="A29" r:id="rId30" xr:uid="{FB696404-2F6B-4C2E-826E-181CA0FD1BEF}"/>
+    <hyperlink ref="A30" r:id="rId31" xr:uid="{CE8458F0-ADC5-4A0B-B0E2-C19F192C6EAD}"/>
+    <hyperlink ref="A31" r:id="rId32" xr:uid="{BDE0EE2D-CBD1-449F-AAB9-0B5824C0D101}"/>
+    <hyperlink ref="A32" r:id="rId33" xr:uid="{6AC8607C-5277-4A76-ACAA-B752E82A6ACF}"/>
+    <hyperlink ref="A33" r:id="rId34" xr:uid="{8A8D3818-5BD0-4573-AE58-F100810E2850}"/>
+    <hyperlink ref="A34" r:id="rId35" xr:uid="{B6B603CA-BBCF-4316-A5D4-FDD1F97FAF98}"/>
+    <hyperlink ref="A35" r:id="rId36" xr:uid="{5450CE98-010A-4D49-8084-F5EE3A147B59}"/>
+    <hyperlink ref="B28" r:id="rId37" xr:uid="{7F29731B-AEB1-4870-AF35-716D3AC27622}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>